--- a/biology/Zoologie/Aspidontus_taeniatus/Aspidontus_taeniatus.xlsx
+++ b/biology/Zoologie/Aspidontus_taeniatus/Aspidontus_taeniatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faux labre nettoyeur, Blennie mimétique
 Aspidontus taeniatus (noms vernaculaires : Faux labre nettoyeur, Blennie mimétique ou Blennie aux dents de sabre) est un poisson d'eau de mer de la famille des Blenniidae qui se rencontre dans l'océan Pacifique entre le 32°N et le 32°S.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidontus taeniatus mesure jusqu'à 11,5 cm. Sa forme, sa couleur et son comportement miment ceux du labre nettoyeur commun (Labroides dimidiatus), un poisson nettoyeur. On le rencontre surtout aux abords des stations de nettoyage des récifs coralliens. Utilisant la relation mutualiste entre le labre nettoyeur et ses patients, la Blennie aux dents de sabre profite de l'immobilité et de la confiance du poisson qui souhaite se faire nettoyer, pour lui arracher un bout de chair pour s'en nourrir, avant de prendre la fuite. Ce prédateur, comme d'autres, explique l'éthologiste Irenäus Eibl-Eibesfeldt, attaque de préférence les yeux : c'est pourquoi tant de poissons des coraux ont les yeux masqués par un bandeau noir[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidontus taeniatus mesure jusqu'à 11,5 cm. Sa forme, sa couleur et son comportement miment ceux du labre nettoyeur commun (Labroides dimidiatus), un poisson nettoyeur. On le rencontre surtout aux abords des stations de nettoyage des récifs coralliens. Utilisant la relation mutualiste entre le labre nettoyeur et ses patients, la Blennie aux dents de sabre profite de l'immobilité et de la confiance du poisson qui souhaite se faire nettoyer, pour lui arracher un bout de chair pour s'en nourrir, avant de prendre la fuite. Ce prédateur, comme d'autres, explique l'éthologiste Irenäus Eibl-Eibesfeldt, attaque de préférence les yeux : c'est pourquoi tant de poissons des coraux ont les yeux masqués par un bandeau noir.
 Il se différencie notamment du vrai labre nettoyeur par la position de la bouche, dirigée vers le bas, celle de L. dimidiatus étant dans le prolongement du corps. L’œil est aussi légèrement différent.
 	Faux labre nettoyeur
 			Aspidontus taeniatus.
